--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/43782163/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/43782163/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9955098628997803</v>
+        <v>0.7495362162590027</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9955062866210938</v>
+        <v>0.7494086027145386</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9334569573402405</v>
+        <v>0.3507562577724457</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9955127835273743</v>
+        <v>0.7496992945671082</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9955193996429443</v>
+        <v>0.7498767971992493</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9955262541770935</v>
+        <v>0.7498784065246582</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9954671859741211</v>
+        <v>0.7434794902801514</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9955262541770935</v>
+        <v>0.7498784065246582</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9295330047607422</v>
+        <v>0.3159700930118561</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9955288767814636</v>
+        <v>0.7501334547996521</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9785246253013611</v>
+        <v>0.4976001381874084</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9955118298530579</v>
+        <v>0.7496238946914673</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.995514452457428</v>
+        <v>0.7497022151947021</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9955116510391235</v>
+        <v>0.7496898174285889</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9955078363418579</v>
+        <v>0.7496852278709412</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6689463257789612</v>
+        <v>0.2742268145084381</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9955244064331055</v>
+        <v>0.7499514818191528</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9955307841300964</v>
+        <v>0.7499083280563354</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9954971075057983</v>
+        <v>0.7495335340499878</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9955201148986816</v>
+        <v>0.7497091889381409</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9955238103866577</v>
+        <v>0.7499246001243591</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9955246448516846</v>
+        <v>0.7500008344650269</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9333317875862122</v>
+        <v>0.3492998480796814</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6697255373001099</v>
+        <v>0.2777830064296722</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9955102205276489</v>
+        <v>0.7496064305305481</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9954812526702881</v>
+        <v>0.7494249939918518</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9955111742019653</v>
+        <v>0.749719500541687</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9954948425292969</v>
+        <v>0.7494315505027771</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9955158829689026</v>
+        <v>0.7498217821121216</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9794555902481079</v>
+        <v>0.4316976964473724</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9784478545188904</v>
+        <v>0.4983859956264496</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9785102605819702</v>
+        <v>0.4962546229362488</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9955138564109802</v>
+        <v>0.7498517036437988</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9784713387489319</v>
+        <v>0.4969415664672852</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9955305457115173</v>
+        <v>0.7500949501991272</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.978513777256012</v>
+        <v>0.4724021852016449</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9785391688346863</v>
+        <v>0.4219565689563751</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9955291152000427</v>
+        <v>0.7500795722007751</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9603650569915771</v>
+        <v>0.2783865332603455</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.979435920715332</v>
+        <v>0.4311759769916534</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.978495180606842</v>
+        <v>0.4966565072536469</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9794649481773376</v>
+        <v>0.4308553338050842</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.97971510887146</v>
+        <v>0.4316200315952301</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9332308769226074</v>
+        <v>0.3478922545909882</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9794799089431763</v>
+        <v>0.4315300583839417</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9955326318740845</v>
+        <v>0.7499861121177673</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9793784022331238</v>
+        <v>0.4303552806377411</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9794856309890747</v>
+        <v>0.4289224445819855</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9954965114593506</v>
+        <v>0.7493845820426941</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9793784022331238</v>
+        <v>0.4303552806377411</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.979358971118927</v>
+        <v>0.4302377700805664</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9955191612243652</v>
+        <v>0.7498551607131958</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9955276846885681</v>
+        <v>0.7498368620872498</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9955269694328308</v>
+        <v>0.7500584721565247</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9784659743309021</v>
+        <v>0.4965138733386993</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.995532751083374</v>
+        <v>0.7499095797538757</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9955266118049622</v>
+        <v>0.7497845888137817</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9955264925956726</v>
+        <v>0.7498385906219482</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9955294728279114</v>
+        <v>0.7500756978988647</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9784627556800842</v>
+        <v>0.4967493414878845</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8713062405586243</v>
+        <v>0.4590142369270325</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.978477418422699</v>
+        <v>0.4962803423404694</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.978477418422699</v>
+        <v>0.4962803423404694</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.978463351726532</v>
+        <v>0.496437132358551</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.978477418422699</v>
+        <v>0.4962803423404694</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9589738249778748</v>
+        <v>0.4256581664085388</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9955184459686279</v>
+        <v>0.7498025894165039</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.978547215461731</v>
+        <v>0.4974136054515839</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9954625964164734</v>
+        <v>0.7487231492996216</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9784988760948181</v>
+        <v>0.496793806552887</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9955138564109802</v>
+        <v>0.7496978044509888</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9955083131790161</v>
+        <v>0.7497355341911316</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9784988760948181</v>
+        <v>0.496793806552887</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9954931735992432</v>
+        <v>0.7494134306907654</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9784988760948181</v>
+        <v>0.496793806552887</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9955244064331055</v>
+        <v>0.7499527931213379</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.978486955165863</v>
+        <v>0.496697336435318</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9954977035522461</v>
+        <v>0.7493515014648438</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.978486955165863</v>
+        <v>0.496697336435318</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.995424211025238</v>
+        <v>0.7488779425621033</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.995424211025238</v>
+        <v>0.7488779425621033</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9955287575721741</v>
+        <v>0.7501072287559509</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9785267114639282</v>
+        <v>0.4968856871128082</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9954999089241028</v>
+        <v>0.7497166395187378</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9784888029098511</v>
+        <v>0.4965648949146271</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9954987168312073</v>
+        <v>0.749333381652832</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9955158829689026</v>
+        <v>0.7497392892837524</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9955154061317444</v>
+        <v>0.7497391700744629</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9955162405967712</v>
+        <v>0.7497313022613525</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9955158829689026</v>
+        <v>0.7497247457504272</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.995515763759613</v>
+        <v>0.7497327327728271</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9955151677131653</v>
+        <v>0.7497316598892212</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9955280423164368</v>
+        <v>0.750097930431366</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7632100582122803</v>
+        <v>0.3060596287250519</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9955260157585144</v>
+        <v>0.7498810887336731</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9885649085044861</v>
+        <v>0.7493670582771301</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9954889416694641</v>
+        <v>0.7494649291038513</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9955257773399353</v>
+        <v>0.7499495148658752</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9337486028671265</v>
+        <v>0.3496390879154205</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9795879125595093</v>
+        <v>0.4270433485507965</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9955103397369385</v>
+        <v>0.7496355175971985</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9592568278312683</v>
+        <v>0.4244684875011444</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9954895377159119</v>
+        <v>0.7494769692420959</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9794289469718933</v>
+        <v>0.431203693151474</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9333089590072632</v>
+        <v>0.3497042655944824</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9955064058303833</v>
+        <v>0.749578058719635</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9794601202011108</v>
+        <v>0.4317650198936462</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9795038104057312</v>
+        <v>0.4312682449817657</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9785335659980774</v>
+        <v>0.4975989758968353</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9955303072929382</v>
+        <v>0.750081479549408</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9785393476486206</v>
+        <v>0.4971199035644531</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9954290390014648</v>
+        <v>0.7488889694213867</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.995469331741333</v>
+        <v>0.7492266297340393</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9537315964698792</v>
+        <v>0.2430901676416397</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9955190420150757</v>
+        <v>0.7497607469558716</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9589861631393433</v>
+        <v>0.423486202955246</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9955315589904785</v>
+        <v>0.7499964237213135</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9589861631393433</v>
+        <v>0.423486202955246</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9955315589904785</v>
+        <v>0.7499964237213135</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9589861631393433</v>
+        <v>0.423486202955246</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.995528519153595</v>
+        <v>0.7499375343322754</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9791561365127563</v>
+        <v>0.7493993043899536</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9954938888549805</v>
+        <v>0.7497938275337219</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9954919219017029</v>
+        <v>0.7494242787361145</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9954664707183838</v>
+        <v>0.7492523193359375</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9789505004882812</v>
+        <v>0.2746725082397461</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9955132603645325</v>
+        <v>0.7497426271438599</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9955150485038757</v>
+        <v>0.7496954798698425</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9955193996429443</v>
+        <v>0.7498390078544617</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9954301118850708</v>
+        <v>0.7486243844032288</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.995508074760437</v>
+        <v>0.7497043013572693</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9954705238342285</v>
+        <v>0.7492714524269104</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9954723119735718</v>
+        <v>0.7492908835411072</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9954935312271118</v>
+        <v>0.7493618130683899</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9288823008537292</v>
+        <v>0.3396706879138947</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9784746766090393</v>
+        <v>0.4961142241954803</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.995516836643219</v>
+        <v>0.7497696876525879</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9784746766090393</v>
+        <v>0.4961142241954803</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9954249262809753</v>
+        <v>0.7489042282104492</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9589738249778748</v>
+        <v>0.4256581664085388</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9955019354820251</v>
+        <v>0.7495951056480408</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9785093665122986</v>
+        <v>0.4966801702976227</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.959267258644104</v>
+        <v>0.4228960275650024</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="152">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9158301949501038</v>
+        <v>0.7491243481636047</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9955311417579651</v>
+        <v>0.7500812411308289</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9332708716392517</v>
+        <v>0.3503372967243195</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.995525062084198</v>
+        <v>0.7500280737876892</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9333508014678955</v>
+        <v>0.3503169417381287</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9955196380615234</v>
+        <v>0.7498030066490173</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9333515167236328</v>
+        <v>0.3502703309059143</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9955242872238159</v>
+        <v>0.7498458623886108</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9784898161888123</v>
+        <v>0.4971969127655029</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9955065250396729</v>
+        <v>0.7495567798614502</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7162725329399109</v>
+        <v>0.3473169803619385</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9954742789268494</v>
+        <v>0.7492468357086182</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9784893989562988</v>
+        <v>0.4960798919200897</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9955295920372009</v>
+        <v>0.7501052021980286</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9954327344894409</v>
+        <v>0.7488647103309631</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9794053435325623</v>
+        <v>0.4312123358249664</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9783836007118225</v>
+        <v>0.4967256784439087</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9794053435325623</v>
+        <v>0.4312123358249664</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9784442782402039</v>
+        <v>0.4962961077690125</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9954981803894043</v>
+        <v>0.7494736909866333</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9954705238342285</v>
+        <v>0.7492820620536804</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9954714775085449</v>
+        <v>0.7492554783821106</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9954705238342285</v>
+        <v>0.7492820620536804</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9954705238342285</v>
+        <v>0.7492820620536804</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9954714775085449</v>
+        <v>0.7492554783821106</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9955071210861206</v>
+        <v>0.7495914101600647</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9954620003700256</v>
+        <v>0.7487749457359314</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9955085515975952</v>
+        <v>0.7496622204780579</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9955226182937622</v>
+        <v>0.7499767541885376</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9955161213874817</v>
+        <v>0.7498587965965271</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9591957330703735</v>
+        <v>0.4253416359424591</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.995526134967804</v>
+        <v>0.7500602602958679</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9955286383628845</v>
+        <v>0.7500852942466736</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9955253005027771</v>
+        <v>0.7498878240585327</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9955272078514099</v>
+        <v>0.7498409748077393</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9955078363418579</v>
+        <v>0.7496142983436584</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.995514452457428</v>
+        <v>0.749691903591156</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9955149292945862</v>
+        <v>0.7497215867042542</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7635706663131714</v>
+        <v>0.3060078918933868</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9955152869224548</v>
+        <v>0.749847948551178</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9955142140388489</v>
+        <v>0.7496795058250427</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9590908885002136</v>
+        <v>0.4241920113563538</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.979512631893158</v>
+        <v>0.431581050157547</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9955256581306458</v>
+        <v>0.750057578086853</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.995522141456604</v>
+        <v>0.7498218417167664</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9955272078514099</v>
+        <v>0.7498906850814819</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9955257773399353</v>
+        <v>0.7499547004699707</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.978559672832489</v>
+        <v>0.4965189397335052</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9955241680145264</v>
+        <v>0.7499428987503052</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9955217838287354</v>
+        <v>0.7499565482139587</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9955097436904907</v>
+        <v>0.7496826648712158</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9794237613677979</v>
+        <v>0.4306934773921967</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9955272078514099</v>
+        <v>0.7499224543571472</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9954723715782166</v>
+        <v>0.749327540397644</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7628198862075806</v>
+        <v>0.3061601519584656</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9954677820205688</v>
+        <v>0.7487204074859619</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6712520122528076</v>
+        <v>0.2787886261940002</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9955123066902161</v>
+        <v>0.7497578263282776</v>
       </c>
     </row>
   </sheetData>
